--- a/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>219114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>204549</v>
+        <v>205262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>229818</v>
+        <v>230893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8025843050296764</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.749236405155982</v>
+        <v>0.7518485364635243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8417934527189445</v>
+        <v>0.8457297668945931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>217</v>
@@ -765,19 +765,19 @@
         <v>234364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223788</v>
+        <v>223653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242645</v>
+        <v>242694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8985047672219123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8579579759376154</v>
+        <v>0.8574417074098228</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.930250264439838</v>
+        <v>0.9304393400829493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>431</v>
@@ -786,19 +786,19 @@
         <v>453478</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>437521</v>
+        <v>436122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>469069</v>
+        <v>468718</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8494510326413438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.819561214763151</v>
+        <v>0.8169397317397654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8786556946999622</v>
+        <v>0.8779997649423923</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>53896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43192</v>
+        <v>42117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68461</v>
+        <v>67748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1974156949703236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1582065472810558</v>
+        <v>0.1542702331054069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.250763594844018</v>
+        <v>0.2481514635364758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -836,19 +836,19 @@
         <v>26474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18193</v>
+        <v>18144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37050</v>
+        <v>37185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1014952327780877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06974973556016202</v>
+        <v>0.06956065991705074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1420420240623846</v>
+        <v>0.1425582925901772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -857,19 +857,19 @@
         <v>80370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64779</v>
+        <v>65130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96327</v>
+        <v>97726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1505489673586562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1213443053000378</v>
+        <v>0.1220002350576077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1804387852368487</v>
+        <v>0.1830602682602344</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>288618</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>264771</v>
+        <v>267326</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>308654</v>
+        <v>311341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5866318678385884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5381619393920504</v>
+        <v>0.5433549265513895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6273564773582747</v>
+        <v>0.6328181333285721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>329</v>
@@ -982,19 +982,19 @@
         <v>333948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>315931</v>
+        <v>315480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>357830</v>
+        <v>354497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6626615848827186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6269111122107762</v>
+        <v>0.6260161482277734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7100519513842534</v>
+        <v>0.7034381822418394</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>601</v>
@@ -1003,19 +1003,19 @@
         <v>622565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>591814</v>
+        <v>590807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>654642</v>
+        <v>650648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6251031791198982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5942263259575337</v>
+        <v>0.5932155500421412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6573111196657611</v>
+        <v>0.6533000110884468</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>203373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>183337</v>
+        <v>180650</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227220</v>
+        <v>224665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4133681321614115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3726435226417253</v>
+        <v>0.367181866671428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4618380606079496</v>
+        <v>0.4566450734486105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -1053,19 +1053,19 @@
         <v>170001</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146119</v>
+        <v>149452</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>188018</v>
+        <v>188469</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3373384151172813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2899480486157467</v>
+        <v>0.2965618177581606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3730888877892238</v>
+        <v>0.3739838517722266</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>362</v>
@@ -1074,19 +1074,19 @@
         <v>373375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>341298</v>
+        <v>345292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>404126</v>
+        <v>405133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3748968208801017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3426888803342386</v>
+        <v>0.3466999889115535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4057736740424658</v>
+        <v>0.4067844499578589</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>197672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>181114</v>
+        <v>178052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215116</v>
+        <v>214836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6199592504120811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5680308463813062</v>
+        <v>0.5584250464737481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6746699018630639</v>
+        <v>0.6737911987477536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -1199,19 +1199,19 @@
         <v>191065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172928</v>
+        <v>172082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210081</v>
+        <v>209124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5696433105573445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5155690166196135</v>
+        <v>0.5130452214777493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6263359386486423</v>
+        <v>0.6234836321788064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>382</v>
@@ -1220,19 +1220,19 @@
         <v>388737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362194</v>
+        <v>356090</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>412478</v>
+        <v>410058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5941642699179398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5535953369243068</v>
+        <v>0.5442655252773818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6304522162141216</v>
+        <v>0.6267524122304808</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>121174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103730</v>
+        <v>104010</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137732</v>
+        <v>140794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3800407495879189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3253300981369361</v>
+        <v>0.3262088012522463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4319691536186939</v>
+        <v>0.4415749535262514</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -1270,19 +1270,19 @@
         <v>144347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125331</v>
+        <v>126288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162484</v>
+        <v>163330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4303566894426554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3736640613513573</v>
+        <v>0.3765163678211937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4844309833803863</v>
+        <v>0.4869547785222507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -1291,19 +1291,19 @@
         <v>265521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>241780</v>
+        <v>244200</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>292064</v>
+        <v>298168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4058357300820603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3695477837858783</v>
+        <v>0.3732475877695192</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4464046630756932</v>
+        <v>0.455734474722619</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>255075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>237822</v>
+        <v>237367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>271411</v>
+        <v>270758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7111679477493612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6630658047326069</v>
+        <v>0.6617970863101338</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.756712553750834</v>
+        <v>0.7548910008586367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>265</v>
@@ -1416,19 +1416,19 @@
         <v>258237</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241446</v>
+        <v>241898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>273914</v>
+        <v>274103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6952011570345131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6499998656615481</v>
+        <v>0.6512154468993904</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7374063618664445</v>
+        <v>0.7379155234819504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -1437,19 +1437,19 @@
         <v>513312</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>487845</v>
+        <v>488202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535932</v>
+        <v>537805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7030447595537033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6681644384459743</v>
+        <v>0.6686540881668604</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7340253992523613</v>
+        <v>0.7365909666975823</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>103596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87260</v>
+        <v>87913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120849</v>
+        <v>121304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2888320522506388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2432874462491659</v>
+        <v>0.2451089991413632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3369341952673932</v>
+        <v>0.3382029136898663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -1487,19 +1487,19 @@
         <v>113219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97542</v>
+        <v>97353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130010</v>
+        <v>129558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3047988429654869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2625936381335561</v>
+        <v>0.2620844765180495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3500001343384522</v>
+        <v>0.3487845531006097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -1508,19 +1508,19 @@
         <v>216815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194195</v>
+        <v>192322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242282</v>
+        <v>241925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2969552404462967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2659746007476387</v>
+        <v>0.2634090333024177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3318355615540257</v>
+        <v>0.3313459118331396</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>161215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147611</v>
+        <v>148441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172699</v>
+        <v>172192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7929578934277849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7260482720724775</v>
+        <v>0.7301292429994396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8494469228960859</v>
+        <v>0.8469515530373503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -1633,19 +1633,19 @@
         <v>178963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168360</v>
+        <v>167111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>187451</v>
+        <v>187134</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8617722419260621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8107168714141985</v>
+        <v>0.804701327277398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9026498834672533</v>
+        <v>0.9011207701548409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>334</v>
@@ -1654,19 +1654,19 @@
         <v>340177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>323644</v>
+        <v>324653</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355527</v>
+        <v>352897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8277300857808552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7874998098367406</v>
+        <v>0.7899551316154652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.865079258064414</v>
+        <v>0.8586795460731301</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>42093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30609</v>
+        <v>31116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55697</v>
+        <v>54867</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2070421065722152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1505530771039141</v>
+        <v>0.1530484469626503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2739517279275225</v>
+        <v>0.2698707570005608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1704,19 +1704,19 @@
         <v>28705</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20217</v>
+        <v>20534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39308</v>
+        <v>40557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.138227758073938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09735011653274654</v>
+        <v>0.09887922984515919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1892831285858013</v>
+        <v>0.1952986727226022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -1725,19 +1725,19 @@
         <v>70799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55449</v>
+        <v>58079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87332</v>
+        <v>86323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1722699142191449</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1349207419355859</v>
+        <v>0.1413204539268699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2125001901632592</v>
+        <v>0.210044868384535</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>187915</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173883</v>
+        <v>172003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>203655</v>
+        <v>202239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6938984564280763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6420828951008477</v>
+        <v>0.6351403641539293</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7520181016461426</v>
+        <v>0.7467885399103855</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -1850,19 +1850,19 @@
         <v>204735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189710</v>
+        <v>191229</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218376</v>
+        <v>219635</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7360772193278766</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.682057355953098</v>
+        <v>0.6875169951959879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7851187963835249</v>
+        <v>0.7896442381097803</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>386</v>
@@ -1871,19 +1871,19 @@
         <v>392651</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>371960</v>
+        <v>371284</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>414922</v>
+        <v>412851</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7152695519506066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6775778669286974</v>
+        <v>0.6763474042166009</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7558394324199466</v>
+        <v>0.7520672378450307</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>82896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67156</v>
+        <v>68572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96928</v>
+        <v>98808</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3061015435719236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2479818983538573</v>
+        <v>0.2532114600896149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3579171048991521</v>
+        <v>0.364859635846071</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1921,19 +1921,19 @@
         <v>73409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59768</v>
+        <v>58509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88434</v>
+        <v>86915</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2639227806721234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2148812036164751</v>
+        <v>0.2103557618902196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.317942644046902</v>
+        <v>0.312483004804012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -1942,19 +1942,19 @@
         <v>156304</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>134033</v>
+        <v>136104</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176995</v>
+        <v>177671</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2847304480493934</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2441605675800535</v>
+        <v>0.2479327621549692</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3224221330713026</v>
+        <v>0.3236525957833992</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>322302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>295142</v>
+        <v>294981</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>347705</v>
+        <v>346524</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5240449715795177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4798844064536134</v>
+        <v>0.4796222394909912</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5653487044429207</v>
+        <v>0.5634290136888147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>301</v>
@@ -2067,19 +2067,19 @@
         <v>312512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287089</v>
+        <v>287171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337259</v>
+        <v>337667</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4904154625307403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4505193778076651</v>
+        <v>0.4506489941189779</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5292507442636848</v>
+        <v>0.5298899687175505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>617</v>
@@ -2088,19 +2088,19 @@
         <v>634814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>598831</v>
+        <v>600705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>668664</v>
+        <v>668255</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5069319663691408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4781978635985514</v>
+        <v>0.4796947467787416</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5339631884095554</v>
+        <v>0.5336369576959695</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>292725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>267322</v>
+        <v>268503</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>319885</v>
+        <v>320046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4759550284204823</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4346512955570792</v>
+        <v>0.4365709863111854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5201155935463866</v>
+        <v>0.5203777605090087</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>319</v>
@@ -2138,19 +2138,19 @@
         <v>324727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299980</v>
+        <v>299572</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350150</v>
+        <v>350068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5095845374692597</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4707492557363154</v>
+        <v>0.4701100312824496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.549480622192335</v>
+        <v>0.5493510058810221</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>601</v>
@@ -2159,19 +2159,19 @@
         <v>617452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>583602</v>
+        <v>584011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>653435</v>
+        <v>651561</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4930680336308592</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4660368115904447</v>
+        <v>0.4663630423040304</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5218021364014487</v>
+        <v>0.5203052532212584</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>593957</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>570615</v>
+        <v>570924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>616117</v>
+        <v>615470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8002165886229359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7687691604467669</v>
+        <v>0.7691855150179882</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8300722634529272</v>
+        <v>0.8292001398343068</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>639</v>
@@ -2284,19 +2284,19 @@
         <v>674887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>653482</v>
+        <v>654621</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>694020</v>
+        <v>691638</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8626298204400328</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.835270583137331</v>
+        <v>0.8367266281441793</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8870856562631688</v>
+        <v>0.884040215045898</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1224</v>
@@ -2305,19 +2305,19 @@
         <v>1268844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1239239</v>
+        <v>1237244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1295542</v>
+        <v>1294483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8322443062829505</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8128259963679397</v>
+        <v>0.8115176506392832</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8497556116588498</v>
+        <v>0.8490613498018715</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>148288</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126128</v>
+        <v>126775</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>171630</v>
+        <v>171321</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1997834113770642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1699277365470728</v>
+        <v>0.1707998601656922</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2312308395532332</v>
+        <v>0.2308144849820119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2355,19 +2355,19 @@
         <v>107473</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88340</v>
+        <v>90722</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128878</v>
+        <v>127739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1373701795599672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1129143437368313</v>
+        <v>0.1159597849541021</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1647294168626691</v>
+        <v>0.163273371855821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>255</v>
@@ -2376,19 +2376,19 @@
         <v>255761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229063</v>
+        <v>230122</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>285366</v>
+        <v>287361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1677556937170495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1502443883411502</v>
+        <v>0.1509386501981285</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1871740036320604</v>
+        <v>0.1884823493607168</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>2225867</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.679880420602902</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2309</v>
@@ -2501,19 +2501,19 @@
         <v>2388711</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7073331137246123</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4499</v>
@@ -2522,19 +2522,19 @@
         <v>4614577</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6938196647783316</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1048042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>988241</v>
+        <v>992889</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1101262</v>
+        <v>1098019</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3201195793970981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3018534017046076</v>
+        <v>0.3032733723366418</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3363754129402733</v>
+        <v>0.3353846551848466</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>986</v>
@@ -2572,19 +2572,19 @@
         <v>988355</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>934551</v>
+        <v>935393</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1040397</v>
+        <v>1034535</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2926668862753878</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2767345589775679</v>
+        <v>0.2769838651961669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3080771595266153</v>
+        <v>0.3063414877462515</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2008</v>
@@ -2593,19 +2593,19 @@
         <v>2036398</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1963114</v>
+        <v>1958083</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2116387</v>
+        <v>2112153</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3061803352216684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2951619040974974</v>
+        <v>0.2944053388140236</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3182070825583785</v>
+        <v>0.3175704379511138</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>212172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>195129</v>
+        <v>195182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227272</v>
+        <v>226663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7310981529010256</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6723733865944573</v>
+        <v>0.6725536012071778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7831287859184606</v>
+        <v>0.781029322172059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>205</v>
@@ -2962,19 +2962,19 @@
         <v>231239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>215690</v>
+        <v>217413</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243310</v>
+        <v>243475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8163801093301468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7614863154094278</v>
+        <v>0.767568384750289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8589967359524879</v>
+        <v>0.8595804519861224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>410</v>
@@ -2983,19 +2983,19 @@
         <v>443411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422858</v>
+        <v>420033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>464093</v>
+        <v>463835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7732215815473985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7373812038250368</v>
+        <v>0.7324554839137766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8092873382635886</v>
+        <v>0.8088368409907091</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>78038</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62938</v>
+        <v>63547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95081</v>
+        <v>95028</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2689018470989744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2168712140815394</v>
+        <v>0.2189706778279412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3276266134055426</v>
+        <v>0.3274463987928222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -3033,19 +3033,19 @@
         <v>52010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39939</v>
+        <v>39774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67559</v>
+        <v>65836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1836198906698532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1410032640475122</v>
+        <v>0.1404195480138776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2385136845905722</v>
+        <v>0.232431615249711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -3054,19 +3054,19 @@
         <v>130048</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109366</v>
+        <v>109624</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150601</v>
+        <v>153426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2267784184526015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1907126617364115</v>
+        <v>0.191163159009291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2626187961749632</v>
+        <v>0.2675445160862234</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>277848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>254962</v>
+        <v>256376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299874</v>
+        <v>302499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5517569407612499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5063093495916136</v>
+        <v>0.5091164271634783</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5954962035957714</v>
+        <v>0.6007081970623511</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>276</v>
@@ -3179,19 +3179,19 @@
         <v>298852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>276579</v>
+        <v>275738</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>324173</v>
+        <v>323854</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5718883154916531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5292668241770934</v>
+        <v>0.5276576540690143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6203434408767327</v>
+        <v>0.6197333012251895</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>533</v>
@@ -3200,19 +3200,19 @@
         <v>576700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>541536</v>
+        <v>543652</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>611888</v>
+        <v>609126</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5620089999321802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5277406026289087</v>
+        <v>0.52980288386365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5963010247719216</v>
+        <v>0.5936091114587461</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>225722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203696</v>
+        <v>201071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>248608</v>
+        <v>247194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4482430592387501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4045037964042286</v>
+        <v>0.399291802937649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4936906504083863</v>
+        <v>0.490883572836522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -3250,19 +3250,19 @@
         <v>223718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>198397</v>
+        <v>198716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245991</v>
+        <v>246832</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4281116845083469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3796565591232674</v>
+        <v>0.3802666987748103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4707331758229067</v>
+        <v>0.472342345930985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>416</v>
@@ -3271,19 +3271,19 @@
         <v>449440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>414252</v>
+        <v>417014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>484604</v>
+        <v>482488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4379910000678198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4036989752280783</v>
+        <v>0.4063908885412539</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4722593973710914</v>
+        <v>0.4701971161363501</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>208920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190300</v>
+        <v>189128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>224559</v>
+        <v>226378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6467731825483224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5891297046323469</v>
+        <v>0.5855018620996791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6951871081820655</v>
+        <v>0.7008182243721535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -3396,19 +3396,19 @@
         <v>250174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>231847</v>
+        <v>230684</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265768</v>
+        <v>266238</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7357319460143339</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6818333545094156</v>
+        <v>0.6784138873276915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7815934251324228</v>
+        <v>0.7829734802665647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>436</v>
@@ -3417,19 +3417,19 @@
         <v>459094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>435568</v>
+        <v>434857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>482713</v>
+        <v>483340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6923939985836455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6569134704209401</v>
+        <v>0.6558411114905429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7280156020713334</v>
+        <v>0.7289606327391442</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>114099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98460</v>
+        <v>96641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132719</v>
+        <v>133891</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3532268174516776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3048128918179345</v>
+        <v>0.2991817756278465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4108702953676533</v>
+        <v>0.4144981379003208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -3467,19 +3467,19 @@
         <v>89860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74266</v>
+        <v>73796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108187</v>
+        <v>109350</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2642680539856661</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2184065748675772</v>
+        <v>0.2170265197334353</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3181666454905844</v>
+        <v>0.3215861126723083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>198</v>
@@ -3488,19 +3488,19 @@
         <v>203959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180340</v>
+        <v>179713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>227485</v>
+        <v>228196</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3076060014163545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2719843979286663</v>
+        <v>0.2710393672608556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3430865295790599</v>
+        <v>0.344158888509457</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>192047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172227</v>
+        <v>170961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211417</v>
+        <v>213570</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5180591942635331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4645946928268964</v>
+        <v>0.4611798046101316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5703123089444512</v>
+        <v>0.5761198835625906</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -3613,19 +3613,19 @@
         <v>237468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>218203</v>
+        <v>216786</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254539</v>
+        <v>255248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6136618279966991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5638780902503402</v>
+        <v>0.5602144475780092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6577755605473619</v>
+        <v>0.659609488955665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>402</v>
@@ -3634,19 +3634,19 @@
         <v>429515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>401162</v>
+        <v>400713</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>458651</v>
+        <v>456849</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5668866958170048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5294658046285271</v>
+        <v>0.5288731818785436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6053411792094167</v>
+        <v>0.6029631205052944</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>178657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159287</v>
+        <v>157134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198477</v>
+        <v>199743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4819408057364669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4296876910555484</v>
+        <v>0.4238801164374097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5354053071731035</v>
+        <v>0.5388201953898684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -3684,19 +3684,19 @@
         <v>149501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132430</v>
+        <v>131721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168766</v>
+        <v>170183</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.386338172003301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3422244394526379</v>
+        <v>0.340390511044335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4361219097496598</v>
+        <v>0.4397855524219907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -3705,19 +3705,19 @@
         <v>328158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>299022</v>
+        <v>300824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356511</v>
+        <v>356960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4331133041829952</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3946588207905835</v>
+        <v>0.3970368794947058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.470534195371473</v>
+        <v>0.4711268181214566</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>112866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97703</v>
+        <v>99117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128907</v>
+        <v>128632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5333873796942579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4617289482624248</v>
+        <v>0.4684087430125621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.609190560526529</v>
+        <v>0.6078930356684407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -3830,19 +3830,19 @@
         <v>156875</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>143646</v>
+        <v>142668</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169158</v>
+        <v>169097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7173119069359281</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6568237862916033</v>
+        <v>0.6523498457522862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7734778180798931</v>
+        <v>0.7731982386509777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>253</v>
@@ -3851,19 +3851,19 @@
         <v>269742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247505</v>
+        <v>249963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>289820</v>
+        <v>290668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6268659611596146</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5751899734699588</v>
+        <v>0.5809009884343677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6735281174024521</v>
+        <v>0.6754983925253497</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>98737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82696</v>
+        <v>82971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113900</v>
+        <v>112486</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4666126203057421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3908094394734722</v>
+        <v>0.3921069643315593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5382710517375752</v>
+        <v>0.5315912569874379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -3901,19 +3901,19 @@
         <v>61823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49540</v>
+        <v>49601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75052</v>
+        <v>76030</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2826880930640719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2265221819201069</v>
+        <v>0.2268017613490223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3431762137083967</v>
+        <v>0.3476501542477139</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -3922,19 +3922,19 @@
         <v>160560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140482</v>
+        <v>139634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>182797</v>
+        <v>180339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3731340388403854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.326471882597548</v>
+        <v>0.3245016074746504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4248100265300413</v>
+        <v>0.4190990115656323</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>165511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>147952</v>
+        <v>148841</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>180944</v>
+        <v>182596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6133751685771996</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.548299622574882</v>
+        <v>0.5515955243736121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6705676916844959</v>
+        <v>0.6766882173509234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>204</v>
@@ -4047,19 +4047,19 @@
         <v>212360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>197835</v>
+        <v>196739</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225705</v>
+        <v>226117</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7613363854868004</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7092622475909919</v>
+        <v>0.7053338634165361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8091798656203766</v>
+        <v>0.8106561637726001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>360</v>
@@ -4068,19 +4068,19 @@
         <v>377872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>355064</v>
+        <v>355767</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>398891</v>
+        <v>402935</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6885818422475137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6470197537553805</v>
+        <v>0.6483020156957644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7268852614764959</v>
+        <v>0.7342547163198945</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>104326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88893</v>
+        <v>87241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121885</v>
+        <v>120996</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3866248314228004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3294323083155042</v>
+        <v>0.3233117826490766</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4517003774251181</v>
+        <v>0.4484044756263876</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -4118,19 +4118,19 @@
         <v>66571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53226</v>
+        <v>52814</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81096</v>
+        <v>82192</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2386636145131996</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1908201343796224</v>
+        <v>0.1893438362274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2907377524090081</v>
+        <v>0.2946661365834639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>165</v>
@@ -4139,19 +4139,19 @@
         <v>170896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149877</v>
+        <v>145833</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193704</v>
+        <v>193001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3114181577524862</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2731147385235041</v>
+        <v>0.2657452836801054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3529802462446194</v>
+        <v>0.3516979843042357</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>392907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>366689</v>
+        <v>366640</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418258</v>
+        <v>419140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5999648670931547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5599312413226929</v>
+        <v>0.5598562730975122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6386758293494809</v>
+        <v>0.6400223904783318</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>433</v>
@@ -4264,19 +4264,19 @@
         <v>475687</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>449230</v>
+        <v>451539</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>498595</v>
+        <v>500557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6934118097296909</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6548461057836336</v>
+        <v>0.6582112070869149</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7268057091151532</v>
+        <v>0.729665477479537</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>794</v>
@@ -4285,19 +4285,19 @@
         <v>868593</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>832491</v>
+        <v>832693</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>905356</v>
+        <v>903972</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6477728957663689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6208487977314828</v>
+        <v>0.6209993799334331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6751894123802145</v>
+        <v>0.6741571571643095</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>261976</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236625</v>
+        <v>235743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288194</v>
+        <v>288243</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4000351329068453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.361324170650519</v>
+        <v>0.3599776095216683</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.440068758677307</v>
+        <v>0.4401437269024878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>197</v>
@@ -4335,19 +4335,19 @@
         <v>210322</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187414</v>
+        <v>185452</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>236779</v>
+        <v>234470</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3065881902703092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2731942908848469</v>
+        <v>0.270334522520463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3451538942163664</v>
+        <v>0.3417887929130852</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>446</v>
@@ -4356,19 +4356,19 @@
         <v>472299</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>435536</v>
+        <v>436920</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>508401</v>
+        <v>508199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3522271042336311</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3248105876197857</v>
+        <v>0.3258428428356905</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3791512022685172</v>
+        <v>0.3790006200665668</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>693105</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>673905</v>
+        <v>674537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>707953</v>
+        <v>708696</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8941317777662366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8693636150169286</v>
+        <v>0.8701780089825678</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9132859981048901</v>
+        <v>0.914244532921488</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>671</v>
@@ -4481,19 +4481,19 @@
         <v>727721</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>708097</v>
+        <v>708555</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>748046</v>
+        <v>744916</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8855524472674191</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8616717431820863</v>
+        <v>0.862229415280193</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9102856827865624</v>
+        <v>0.9064758874054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1305</v>
@@ -4502,19 +4502,19 @@
         <v>1420826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1395275</v>
+        <v>1393991</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1446172</v>
+        <v>1444861</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8897169369567756</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8737169018039039</v>
+        <v>0.8729127922405192</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.905588251091349</v>
+        <v>0.9047673127024654</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>82066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67218</v>
+        <v>66475</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101266</v>
+        <v>100634</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1058682222337633</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08671400189510999</v>
+        <v>0.08575546707851218</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1306363849830717</v>
+        <v>0.1298219910174322</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4552,19 +4552,19 @@
         <v>94050</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73725</v>
+        <v>76855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113674</v>
+        <v>113216</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1144475527325809</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08971431721343749</v>
+        <v>0.09352411259460003</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1383282568179137</v>
+        <v>0.137770584719807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>163</v>
@@ -4573,19 +4573,19 @@
         <v>176116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>150770</v>
+        <v>152081</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201667</v>
+        <v>202951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1102830630432244</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09441174890865121</v>
+        <v>0.09523268729753492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1262830981960963</v>
+        <v>0.127087207759481</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>2255376</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6635417280835282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2395</v>
@@ -4698,19 +4698,19 @@
         <v>2590376</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7321103844907102</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4493</v>
@@ -4719,19 +4719,19 @@
         <v>4845753</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6985141656119588</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1143621</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1086299</v>
+        <v>1085200</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1200115</v>
+        <v>1198747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3364582719164718</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3195940006880926</v>
+        <v>0.3192706346281901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3530790685782323</v>
+        <v>0.3526766362046555</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>885</v>
@@ -4769,19 +4769,19 @@
         <v>947856</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>891000</v>
+        <v>893810</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1000541</v>
+        <v>1003337</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2678896155092897</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2518206120248553</v>
+        <v>0.2526148509330451</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2827798236280095</v>
+        <v>0.283570026741751</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1969</v>
@@ -4790,19 +4790,19 @@
         <v>2091476</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2009886</v>
+        <v>2015107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2172449</v>
+        <v>2172750</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3014858343880412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2897246184275649</v>
+        <v>0.2904772519051086</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3131580186625481</v>
+        <v>0.3132014940182427</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>235116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>220160</v>
+        <v>220013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248332</v>
+        <v>247967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8197292670271038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7675844154255308</v>
+        <v>0.7670715980533166</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.865806918743836</v>
+        <v>0.8645342770650072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -5159,19 +5159,19 @@
         <v>237962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>224521</v>
+        <v>223731</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250048</v>
+        <v>250806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8326412675838871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7856109178251249</v>
+        <v>0.7828438822886619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8749283333444359</v>
+        <v>0.87758077058275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>444</v>
@@ -5180,19 +5180,19 @@
         <v>473079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452241</v>
+        <v>452326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>490728</v>
+        <v>490164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8261736577967932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7897841256182186</v>
+        <v>0.7899321995482708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8569960995402434</v>
+        <v>0.8560120766126492</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>51706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38490</v>
+        <v>38855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66662</v>
+        <v>66809</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1802707329728962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1341930812561642</v>
+        <v>0.1354657229349929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2324155845744693</v>
+        <v>0.2329284019466834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -5230,19 +5230,19 @@
         <v>47830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35744</v>
+        <v>34986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61271</v>
+        <v>62061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1673587324161129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1250716666555642</v>
+        <v>0.1224192294172502</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.214389082174875</v>
+        <v>0.2171561177113382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -5251,19 +5251,19 @@
         <v>99535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81886</v>
+        <v>82450</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120373</v>
+        <v>120288</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1738263422032068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1430039004597566</v>
+        <v>0.1439879233873508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2102158743817814</v>
+        <v>0.2100678004517293</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>398608</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>378594</v>
+        <v>378451</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>415524</v>
+        <v>414963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7996076380955666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7594578002283225</v>
+        <v>0.7591721489071821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8335397309721132</v>
+        <v>0.8324155889334213</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>382</v>
@@ -5376,19 +5376,19 @@
         <v>418162</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>398002</v>
+        <v>401134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>433051</v>
+        <v>435858</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8062623557475568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7673917193356616</v>
+        <v>0.7734297293102058</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8349684996059384</v>
+        <v>0.8403812307338437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>759</v>
@@ -5397,19 +5397,19 @@
         <v>816771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>789892</v>
+        <v>790029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>841329</v>
+        <v>840291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8030008756381816</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7765750992300299</v>
+        <v>0.7767098844374491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8271448990716193</v>
+        <v>0.826124200612531</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>99897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82981</v>
+        <v>83542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119911</v>
+        <v>120054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2003923619044335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1664602690278868</v>
+        <v>0.1675844110665786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2405421997716772</v>
+        <v>0.2408278510928176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>98</v>
@@ -5447,19 +5447,19 @@
         <v>100481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85592</v>
+        <v>82785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>120641</v>
+        <v>117509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1937376442524432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1650315003940616</v>
+        <v>0.1596187692661563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2326082806643384</v>
+        <v>0.2265702706897942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>192</v>
@@ -5468,19 +5468,19 @@
         <v>200377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175819</v>
+        <v>176857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227256</v>
+        <v>227119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1969991243618185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1728551009283807</v>
+        <v>0.1738757993874689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2234249007699701</v>
+        <v>0.2232901155625504</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>226232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210370</v>
+        <v>210786</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242177</v>
+        <v>242169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.712094654627464</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6621642240323998</v>
+        <v>0.6634758303182557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7622830999110496</v>
+        <v>0.7622582338998324</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>266</v>
@@ -5593,19 +5593,19 @@
         <v>269922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>253528</v>
+        <v>254006</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282920</v>
+        <v>282476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8087523633359914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7596332111588205</v>
+        <v>0.7610652027163234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8476983502396944</v>
+        <v>0.8463665746434963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>507</v>
@@ -5614,19 +5614,19 @@
         <v>496154</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>472757</v>
+        <v>472716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>515474</v>
+        <v>515366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7616142500377805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7256990241537108</v>
+        <v>0.7256363471143257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7912722868217621</v>
+        <v>0.7911060368412003</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>91468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75523</v>
+        <v>75531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107330</v>
+        <v>106914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.287905345372536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2377169000889503</v>
+        <v>0.2377417661001676</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3378357759676002</v>
+        <v>0.3365241696817443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -5664,19 +5664,19 @@
         <v>63829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50831</v>
+        <v>51275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80223</v>
+        <v>79745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1912476366640085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1523016497603049</v>
+        <v>0.153633425356504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2403667888411794</v>
+        <v>0.2389347972836767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -5685,19 +5685,19 @@
         <v>155296</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>135976</v>
+        <v>136084</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178693</v>
+        <v>178734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2383857499622195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.208727713178238</v>
+        <v>0.2088939631587997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2743009758462892</v>
+        <v>0.2743636528856742</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>169231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149972</v>
+        <v>148478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189513</v>
+        <v>190066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.459944266511445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4075998023735569</v>
+        <v>0.403538953113822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5150664374195071</v>
+        <v>0.5165695703306833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -5810,19 +5810,19 @@
         <v>210299</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191723</v>
+        <v>190539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232336</v>
+        <v>229327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5459175505944954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.49769389762324</v>
+        <v>0.4946223674536124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6031218848804848</v>
+        <v>0.595310246561885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>351</v>
@@ -5831,19 +5831,19 @@
         <v>379531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>352252</v>
+        <v>349928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>410616</v>
+        <v>406373</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5039173027831284</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4676983737118378</v>
+        <v>0.4646124936719939</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5451908667371687</v>
+        <v>0.5395564516406712</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>198708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178426</v>
+        <v>177873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217967</v>
+        <v>219461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.540055733488555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4849335625804926</v>
+        <v>0.4834304296693168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5924001976264427</v>
+        <v>0.596461046886178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -5881,19 +5881,19 @@
         <v>174923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152886</v>
+        <v>155895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193499</v>
+        <v>194683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4540824494055046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3968781151195152</v>
+        <v>0.404689753438115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.50230610237676</v>
+        <v>0.5053776325463876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>357</v>
@@ -5902,19 +5902,19 @@
         <v>373630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342545</v>
+        <v>346788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400909</v>
+        <v>403233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4960826972168716</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4548091332628313</v>
+        <v>0.4604435483593287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5323016262881622</v>
+        <v>0.535387506328006</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>182267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>171446</v>
+        <v>169177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191621</v>
+        <v>190717</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8629212511832647</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8116905851676122</v>
+        <v>0.800947471406018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.907207511350519</v>
+        <v>0.9029275226369793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -6027,19 +6027,19 @@
         <v>190932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179992</v>
+        <v>182061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199925</v>
+        <v>199178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8734835449046832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8234321821274728</v>
+        <v>0.8329007589045002</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9146227482059928</v>
+        <v>0.9112060645230533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -6048,19 +6048,19 @@
         <v>373199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>357801</v>
+        <v>357746</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>385981</v>
+        <v>385649</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8682929057523675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8324659452404143</v>
+        <v>0.8323392492757772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8980306094172886</v>
+        <v>0.8972578399476074</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>28954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19600</v>
+        <v>20504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39775</v>
+        <v>42044</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1370787488167353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09279248864948099</v>
+        <v>0.09707247736302069</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1883094148323879</v>
+        <v>0.1990525285939815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -6098,19 +6098,19 @@
         <v>27655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18662</v>
+        <v>19409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38595</v>
+        <v>36526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1265164550953168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08537725179400693</v>
+        <v>0.0887939354769471</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1765678178725268</v>
+        <v>0.1670992410954999</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -6119,19 +6119,19 @@
         <v>56609</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43827</v>
+        <v>44159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72007</v>
+        <v>72062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1317070942476325</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1019693905827113</v>
+        <v>0.1027421600523926</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1675340547595854</v>
+        <v>0.1676607507242225</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>203719</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189328</v>
+        <v>189624</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>216692</v>
+        <v>216836</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7742360499660162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7195422538030828</v>
+        <v>0.7206649366456659</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8235400680988673</v>
+        <v>0.8240862636019685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -6244,19 +6244,19 @@
         <v>208532</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195585</v>
+        <v>194255</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221993</v>
+        <v>222566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7689896104128651</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7212463493150115</v>
+        <v>0.7163425395258328</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8186297800314124</v>
+        <v>0.8207438840304712</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>398</v>
@@ -6265,19 +6265,19 @@
         <v>412251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>393084</v>
+        <v>392424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>431535</v>
+        <v>431494</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7715732914557371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7357005509047607</v>
+        <v>0.7344651107256908</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8076656337985513</v>
+        <v>0.807588897636871</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>59404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46431</v>
+        <v>46287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73795</v>
+        <v>73499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2257639500339838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1764599319011327</v>
+        <v>0.1759137363980315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2804577461969172</v>
+        <v>0.2793350633543341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -6315,19 +6315,19 @@
         <v>62644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49183</v>
+        <v>48610</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75591</v>
+        <v>76921</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2310103895871349</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1813702199685877</v>
+        <v>0.179256115969529</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2787536506849886</v>
+        <v>0.2836574604741675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>122</v>
@@ -6336,19 +6336,19 @@
         <v>122048</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102764</v>
+        <v>102805</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141215</v>
+        <v>141875</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2284267085442629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1923343662014486</v>
+        <v>0.1924111023631291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2642994490952392</v>
+        <v>0.2655348892743093</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>536068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>515771</v>
+        <v>511891</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555871</v>
+        <v>555154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8208619446023949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7897822664158959</v>
+        <v>0.7838411045846176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8511851122776236</v>
+        <v>0.8500882160382534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>545</v>
@@ -6461,19 +6461,19 @@
         <v>585211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>564992</v>
+        <v>565953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>602258</v>
+        <v>603832</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8550810042167879</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8255378759279869</v>
+        <v>0.8269424250661549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8799894826453113</v>
+        <v>0.8822898047753071</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1019</v>
@@ -6482,19 +6482,19 @@
         <v>1121279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1094116</v>
+        <v>1093539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1146481</v>
+        <v>1147860</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8383723570076574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8180630955660604</v>
+        <v>0.8176314002404403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8572162402605269</v>
+        <v>0.8582471442513597</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>116987</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97184</v>
+        <v>97901</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137284</v>
+        <v>141164</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1791380553976051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1488148877223764</v>
+        <v>0.1499117839617467</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2102177335841041</v>
+        <v>0.2161588954153824</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>95</v>
@@ -6532,19 +6532,19 @@
         <v>99181</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82134</v>
+        <v>80560</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>119400</v>
+        <v>118439</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1449189957832122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.120010517354689</v>
+        <v>0.1177101952246932</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1744621240720137</v>
+        <v>0.1730575749338452</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>198</v>
@@ -6553,19 +6553,19 @@
         <v>216168</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>190966</v>
+        <v>189587</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>243331</v>
+        <v>243908</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1616276429923426</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1427837597394731</v>
+        <v>0.1417528557486403</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1819369044339396</v>
+        <v>0.1823685997595596</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>718426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>701737</v>
+        <v>701080</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>731899</v>
+        <v>731234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9227349917603864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9013003538754982</v>
+        <v>0.9004560374869276</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.940039784360541</v>
+        <v>0.9391854610109927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>702</v>
@@ -6678,19 +6678,19 @@
         <v>770185</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>753463</v>
+        <v>752495</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>783280</v>
+        <v>782576</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9345581359502317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9142673456209061</v>
+        <v>0.9130929909068054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9504473612415536</v>
+        <v>0.9495935988254628</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1394</v>
@@ -6699,19 +6699,19 @@
         <v>1488611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1465830</v>
+        <v>1467118</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1508560</v>
+        <v>1506936</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.928814516326816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9146003357404932</v>
+        <v>0.9154041087048191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9412615257300047</v>
+        <v>0.9402482544174245</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>60157</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46684</v>
+        <v>47349</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76846</v>
+        <v>77503</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07726500823961363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.059960215639459</v>
+        <v>0.06081453898900741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09869964612450061</v>
+        <v>0.09954396251307265</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -6749,19 +6749,19 @@
         <v>53932</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40837</v>
+        <v>41541</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70654</v>
+        <v>71622</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06544186404976822</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04955263875844649</v>
+        <v>0.05040640117453712</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08573265437909391</v>
+        <v>0.08690700909319443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -6770,19 +6770,19 @@
         <v>114089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94140</v>
+        <v>95764</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>136870</v>
+        <v>135582</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07118548367318396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05873847426999535</v>
+        <v>0.05975174558257539</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08539966425950686</v>
+        <v>0.08459589129518089</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>2669669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7905566615005207</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2708</v>
@@ -6895,19 +6895,19 @@
         <v>2891205</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8209733533669299</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5249</v>
@@ -6916,19 +6916,19 @@
         <v>5560875</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8060840761063175</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>707279</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>659646</v>
+        <v>660160</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>753213</v>
+        <v>756343</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2094433384994793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1953378221556376</v>
+        <v>0.1954901590417462</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2230454318796486</v>
+        <v>0.2239722261626465</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>609</v>
@@ -6966,19 +6966,19 @@
         <v>630475</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>582596</v>
+        <v>582851</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>673591</v>
+        <v>678940</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1790266466330701</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1654312152783572</v>
+        <v>0.1655036749727176</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1912696607899606</v>
+        <v>0.1927886916782008</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1284</v>
@@ -6987,19 +6987,19 @@
         <v>1337754</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1264186</v>
+        <v>1272916</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1402020</v>
+        <v>1404295</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1939159238936825</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1832517723356232</v>
+        <v>0.1845173069594932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.203231749622576</v>
+        <v>0.2035614412713515</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>174034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>153694</v>
+        <v>154915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191943</v>
+        <v>192687</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5471095963326416</v>
+        <v>0.5471095963326417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4831668900465892</v>
+        <v>0.4870041554855703</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6034095783955908</v>
+        <v>0.605747688690738</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>327</v>
@@ -7356,19 +7356,19 @@
         <v>187825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>173715</v>
+        <v>172407</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202089</v>
+        <v>202076</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6006551138201599</v>
+        <v>0.60065511382016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5555322702527955</v>
+        <v>0.5513481384517434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6462703720652334</v>
+        <v>0.646226107626259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -7377,19 +7377,19 @@
         <v>361859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>337877</v>
+        <v>336274</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>385382</v>
+        <v>384217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5736533438746234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5356335188553329</v>
+        <v>0.533092256917346</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.610944239073049</v>
+        <v>0.609096749704336</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>144063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126154</v>
+        <v>125410</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164403</v>
+        <v>163182</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4528904036673583</v>
+        <v>0.4528904036673585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3965904216044092</v>
+        <v>0.3942523113092616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.51683310995341</v>
+        <v>0.5129958445144298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -7427,19 +7427,19 @@
         <v>124876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110612</v>
+        <v>110625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138986</v>
+        <v>140294</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3993448861798401</v>
+        <v>0.3993448861798402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3537296279347666</v>
+        <v>0.353773892373741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4444677297472044</v>
+        <v>0.4486518615482567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -7448,19 +7448,19 @@
         <v>268939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>245416</v>
+        <v>246581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292921</v>
+        <v>294524</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4263466561253767</v>
+        <v>0.4263466561253766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3890557609269511</v>
+        <v>0.3909032502956639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4643664811446669</v>
+        <v>0.466907743082654</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>332329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304165</v>
+        <v>300907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>358059</v>
+        <v>356196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6330667598241033</v>
+        <v>0.6330667598241032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5794161086892177</v>
+        <v>0.5732091190070249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.682081753788316</v>
+        <v>0.6785322430507332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>422</v>
@@ -7573,19 +7573,19 @@
         <v>313655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>291764</v>
+        <v>293824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>334399</v>
+        <v>335969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5759691638877232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5357706915908022</v>
+        <v>0.5395528809379553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6140615107497426</v>
+        <v>0.616945379674993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>662</v>
@@ -7594,19 +7594,19 @@
         <v>645984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>607210</v>
+        <v>609089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>681362</v>
+        <v>683328</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6039943029383401</v>
+        <v>0.60399430293834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5677403086655912</v>
+        <v>0.5694979664805343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6370723741163944</v>
+        <v>0.6389105124616419</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>192622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>166892</v>
+        <v>168755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220786</v>
+        <v>224044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3669332401758967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3179182462116838</v>
+        <v>0.321467756949267</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4205838913107821</v>
+        <v>0.4267908809929753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -7644,19 +7644,19 @@
         <v>230914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210170</v>
+        <v>208600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>252805</v>
+        <v>250745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4240308361122766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3859384892502574</v>
+        <v>0.3830546203250072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4642293084091978</v>
+        <v>0.460447119062045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>429</v>
@@ -7665,19 +7665,19 @@
         <v>423536</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388158</v>
+        <v>386192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>462310</v>
+        <v>460431</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.39600569706166</v>
+        <v>0.3960056970616598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3629276258836054</v>
+        <v>0.361089487538358</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4322596913344088</v>
+        <v>0.4305020335194656</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>140615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123826</v>
+        <v>124002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157262</v>
+        <v>157046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4579320790617187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4032571240112043</v>
+        <v>0.4038283842832671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5121462125789362</v>
+        <v>0.51144204936393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>278</v>
@@ -7790,19 +7790,19 @@
         <v>174779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159026</v>
+        <v>159320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189287</v>
+        <v>190712</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5179443154204412</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4712619121960615</v>
+        <v>0.4721316800370291</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5609356261488724</v>
+        <v>0.5651595957630752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>451</v>
@@ -7811,19 +7811,19 @@
         <v>315394</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>293877</v>
+        <v>293540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>337628</v>
+        <v>339258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4893526976046284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4559672284413521</v>
+        <v>0.4554452840321147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5238492813473268</v>
+        <v>0.5263795814279246</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>166450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149803</v>
+        <v>150019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183239</v>
+        <v>183063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5420679209382814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4878537874210638</v>
+        <v>0.4885579506360699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5967428759887956</v>
+        <v>0.5961716157167327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -7861,19 +7861,19 @@
         <v>162669</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148161</v>
+        <v>146736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178422</v>
+        <v>178128</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4820556845795588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4390643738511277</v>
+        <v>0.4348404042369247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.528738087803939</v>
+        <v>0.5278683199629708</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>402</v>
@@ -7882,19 +7882,19 @@
         <v>329119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>306885</v>
+        <v>305255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>350636</v>
+        <v>350973</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5106473023953716</v>
+        <v>0.5106473023953715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4761507186526731</v>
+        <v>0.4736204185720753</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.544032771558648</v>
+        <v>0.5445547159678853</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>121529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99236</v>
+        <v>97937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144330</v>
+        <v>146305</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3312138965056633</v>
+        <v>0.3312138965056632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2704564112985393</v>
+        <v>0.2669160069477053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3933574103670516</v>
+        <v>0.3987395375393299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>229</v>
@@ -8007,19 +8007,19 @@
         <v>150812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133301</v>
+        <v>132701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169686</v>
+        <v>170155</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3667079779606837</v>
+        <v>0.3667079779606836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3241294435475425</v>
+        <v>0.3226718083123681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4126025500399384</v>
+        <v>0.4137415470022326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -8028,19 +8028,19 @@
         <v>272340</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>244823</v>
+        <v>244119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301347</v>
+        <v>300726</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3499721427498458</v>
+        <v>0.3499721427498459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3146115469412826</v>
+        <v>0.3137060440390937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3872476192486113</v>
+        <v>0.3864498493496497</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>245390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>222589</v>
+        <v>220614</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>267683</v>
+        <v>268982</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6687861034943368</v>
+        <v>0.6687861034943366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6066425896329485</v>
+        <v>0.60126046246067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7295435887014605</v>
+        <v>0.7330839930522947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -8078,19 +8078,19 @@
         <v>260446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>241572</v>
+        <v>241103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>277957</v>
+        <v>278557</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6332920220393164</v>
+        <v>0.6332920220393163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5873974499600617</v>
+        <v>0.5862584529977675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6758705564524579</v>
+        <v>0.6773281916876318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>537</v>
@@ -8099,19 +8099,19 @@
         <v>505837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>476830</v>
+        <v>477451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>533354</v>
+        <v>534058</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.650027857250154</v>
+        <v>0.6500278572501541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.612752380751389</v>
+        <v>0.6135501506503505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6853884530587177</v>
+        <v>0.6862939559609061</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>188074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>178163</v>
+        <v>177120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194983</v>
+        <v>194888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9177478145242978</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8693858866869566</v>
+        <v>0.864292770217138</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.951461049591792</v>
+        <v>0.9509984600571316</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>459</v>
@@ -8224,19 +8224,19 @@
         <v>210496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>201877</v>
+        <v>202744</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>215604</v>
+        <v>215618</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9280191283072242</v>
+        <v>0.9280191283072241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8900193009680436</v>
+        <v>0.8938440720357009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9505375865450864</v>
+        <v>0.9506006033747767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>719</v>
@@ -8245,19 +8245,19 @@
         <v>398570</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>386303</v>
+        <v>385524</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>406984</v>
+        <v>407981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9231438901568781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8947315934554896</v>
+        <v>0.8929276352188138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9426316321120415</v>
+        <v>0.9449408963324711</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>16856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9947</v>
+        <v>10042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26767</v>
+        <v>27810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08225218547570221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04853895040820819</v>
+        <v>0.04900153994286841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1306141133130433</v>
+        <v>0.1357072297828622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -8295,19 +8295,19 @@
         <v>16327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11219</v>
+        <v>11205</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24946</v>
+        <v>24079</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07198087169277591</v>
+        <v>0.07198087169277589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04946241345491374</v>
+        <v>0.04939939662522316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1099806990319565</v>
+        <v>0.1061559279642991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -8316,19 +8316,19 @@
         <v>33183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24769</v>
+        <v>23772</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45450</v>
+        <v>46229</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07685610984312181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05736836788795858</v>
+        <v>0.05505910366752914</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1052684065445104</v>
+        <v>0.1070723647811866</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>109934</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95577</v>
+        <v>97510</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>125196</v>
+        <v>123283</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4068160977825211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3536872258068777</v>
+        <v>0.360840080792214</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4632955559925158</v>
+        <v>0.4562166947791459</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>226</v>
@@ -8441,19 +8441,19 @@
         <v>107371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96452</v>
+        <v>95391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120202</v>
+        <v>119363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4077273929196862</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3662633963799919</v>
+        <v>0.3622339977866815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4564516811590423</v>
+        <v>0.4532643832585602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -8462,19 +8462,19 @@
         <v>217305</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>199796</v>
+        <v>199125</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236462</v>
+        <v>236747</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4072658623611496</v>
+        <v>0.4072658623611495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3744512978757101</v>
+        <v>0.3731934051086589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4431698953199091</v>
+        <v>0.4437029966389637</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>160296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145034</v>
+        <v>146947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174653</v>
+        <v>172720</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5931839022174789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5367044440074843</v>
+        <v>0.5437833052208543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6463127741931225</v>
+        <v>0.6391599192077859</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -8512,19 +8512,19 @@
         <v>155970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143139</v>
+        <v>143978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166889</v>
+        <v>167950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5922726070803137</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5435483188409578</v>
+        <v>0.5467356167414398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6337366036200082</v>
+        <v>0.6377660022133186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>429</v>
@@ -8533,19 +8533,19 @@
         <v>316265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297108</v>
+        <v>296823</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333774</v>
+        <v>334445</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5927341376388504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5568301046800906</v>
+        <v>0.5562970033610363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6255487021242899</v>
+        <v>0.6268065948913411</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>444261</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>415207</v>
+        <v>414758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476800</v>
+        <v>473557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6265503981527389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5855750741137488</v>
+        <v>0.5849423791036398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6724420504410578</v>
+        <v>0.6678675055196557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>622</v>
@@ -8658,19 +8658,19 @@
         <v>483524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>457388</v>
+        <v>456291</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>507004</v>
+        <v>508489</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6388987889677075</v>
+        <v>0.6388987889677076</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6043649938310873</v>
+        <v>0.6029153439871938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6699242458204773</v>
+        <v>0.6718857582790484</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1011</v>
@@ -8679,19 +8679,19 @@
         <v>927784</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>892256</v>
+        <v>891087</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>968764</v>
+        <v>971863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6329257184059275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6086885153988755</v>
+        <v>0.607891095270586</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6608817846055398</v>
+        <v>0.6629954924498903</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>264797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232258</v>
+        <v>235501</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>293851</v>
+        <v>294300</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3734496018472611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3275579495589424</v>
+        <v>0.3321324944803443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4144249258862512</v>
+        <v>0.4150576208963602</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>322</v>
@@ -8729,19 +8729,19 @@
         <v>273284</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>249804</v>
+        <v>248319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299420</v>
+        <v>300517</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3611012110322925</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3300757541795227</v>
+        <v>0.3281142417209515</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3956350061689126</v>
+        <v>0.3970846560128056</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>524</v>
@@ -8750,19 +8750,19 @@
         <v>538082</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>497102</v>
+        <v>494003</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>573610</v>
+        <v>574779</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3670742815940725</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3391182153944601</v>
+        <v>0.3370045075501096</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3913114846011245</v>
+        <v>0.3921089047294137</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>672871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>648768</v>
+        <v>651856</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>692478</v>
+        <v>692845</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8462630326143872</v>
+        <v>0.8462630326143873</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8159498767146395</v>
+        <v>0.8198330547299278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8709234717645912</v>
+        <v>0.8713849535469157</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>935</v>
@@ -8875,19 +8875,19 @@
         <v>723471</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>705122</v>
+        <v>705544</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>739047</v>
+        <v>741304</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8723195266933875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8501953397532173</v>
+        <v>0.8507039320895926</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8910996121709976</v>
+        <v>0.8938214783700239</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1593</v>
@@ -8896,19 +8896,19 @@
         <v>1396343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1365315</v>
+        <v>1367100</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1423504</v>
+        <v>1424783</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8595660234269042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8404657307618533</v>
+        <v>0.8415647115000917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8762858031517693</v>
+        <v>0.8770733810397051</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>122237</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>102630</v>
+        <v>102263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146340</v>
+        <v>143252</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1537369673856128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1290765282354089</v>
+        <v>0.1286150464530843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1840501232853604</v>
+        <v>0.1801669452700721</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -8946,19 +8946,19 @@
         <v>105894</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90318</v>
+        <v>88061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>124243</v>
+        <v>123821</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1276804733066124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1089003878290023</v>
+        <v>0.1061785216299759</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1498046602467827</v>
+        <v>0.1492960679104073</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>227</v>
@@ -8967,19 +8967,19 @@
         <v>228131</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200970</v>
+        <v>199691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>259159</v>
+        <v>257374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1404339765730959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1237141968482308</v>
+        <v>0.1229266189602948</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1595342692381466</v>
+        <v>0.1584352884999083</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>2183645</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6245486735714438</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3498</v>
@@ -9092,19 +9092,19 @@
         <v>2351934</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6387110336007531</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5676</v>
@@ -9113,19 +9113,19 @@
         <v>4535579</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6318132847406458</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1312712</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1249709</v>
+        <v>1246037</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1374155</v>
+        <v>1376101</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3754513264285562</v>
+        <v>0.3754513264285561</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3574318791386655</v>
+        <v>0.3563815637579459</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.393024933984553</v>
+        <v>0.393581330461824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1789</v>
@@ -9163,19 +9163,19 @@
         <v>1330379</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1281518</v>
+        <v>1275370</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1382177</v>
+        <v>1384525</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3612889663992469</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3480198974712253</v>
+        <v>0.3463501512446814</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3753555392374225</v>
+        <v>0.3759932780685575</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2951</v>
@@ -9184,19 +9184,19 @@
         <v>2643091</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2558428</v>
+        <v>2558040</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2726952</v>
+        <v>2728464</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3681867152593543</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3563929945218431</v>
+        <v>0.3563390333472724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3798686488929045</v>
+        <v>0.3800792574464908</v>
       </c>
     </row>
     <row r="30">
